--- a/BANK_CreditRisks_clean.xlsx
+++ b/BANK_CreditRisks_clean.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC5E516F-36F2-594D-9932-FE052C69EF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F74F07B-875A-BD45-B53E-AEA0AE2D1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="193">
   <si>
     <t>BankCode</t>
   </si>
@@ -971,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18440,4 +18441,8397 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CAE276-09A1-4448-9535-BF3B03B54119}">
+  <dimension ref="A1:H337"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3180162000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>13.59</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3754108000000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3966943000000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.43</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5163848000000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5887170000000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6656034000000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7253230000000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13.63</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9418726000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12.46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9934105000000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11.35</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10654081000000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.06</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11269592000000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12157771000000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14.19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12841526000000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14.97</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14123915000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15.59</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12.79</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1">
+        <v>15109085000000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16.22</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13.19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3683123000000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4196493000000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5197545000000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6015329000000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>12.68</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6760117000000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13.68</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7637705000000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11.32</v>
+      </c>
+      <c r="H24" s="1">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9872790000000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10203643000000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="G26" s="1">
+        <v>12.12</v>
+      </c>
+      <c r="H26" s="1">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10722082000000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15.39</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1">
+        <v>11937774000000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>14.94</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1">
+        <v>12919980000000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13.71</v>
+      </c>
+      <c r="H29" s="1">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13659497000000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>14.42</v>
+      </c>
+      <c r="H30" s="1">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15053291000000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>17.52</v>
+      </c>
+      <c r="G31" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="H31" s="1">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16604591000000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>14.22</v>
+      </c>
+      <c r="H32" s="1">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3779170000000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>14.05</v>
+      </c>
+      <c r="H33" s="1">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4405345000000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>13.09</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4748893000000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13.06</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5921330000000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12.36</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7112357000000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8447263000000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>13.17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9511205000000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13.66</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10.62</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="1">
+        <v>11982187000000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>13.12</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1">
+        <v>12475939000000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>14.53</v>
+      </c>
+      <c r="G41" s="1">
+        <v>12.19</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1">
+        <v>13216687000000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>15.22</v>
+      </c>
+      <c r="G42" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="H42" s="1">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1">
+        <v>14564617000000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>14.61</v>
+      </c>
+      <c r="G43" s="1">
+        <v>13.42</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="1">
+        <v>15902801000000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>15.14</v>
+      </c>
+      <c r="G44" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="H44" s="1">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="1">
+        <v>17190992000000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>15.39</v>
+      </c>
+      <c r="G45" s="1">
+        <v>13.45</v>
+      </c>
+      <c r="H45" s="1">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1">
+        <v>18616886000000</v>
+      </c>
+      <c r="F46" s="1">
+        <v>16.77</v>
+      </c>
+      <c r="G46" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="H46" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1">
+        <v>20124139000000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>16.88</v>
+      </c>
+      <c r="G47" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="H47" s="1">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5383694000000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>11.59</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6388375000000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>11.94</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7216178000000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.67</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9065631000000</v>
+      </c>
+      <c r="F51" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="H51" s="1">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10852619000000</v>
+      </c>
+      <c r="F52" s="1">
+        <v>12.82</v>
+      </c>
+      <c r="G52" s="1">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10986302000000</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>10.96</v>
+      </c>
+      <c r="H53" s="1">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1">
+        <v>11856530000000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11.06</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="1">
+        <v>12605577000000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>13.74</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11.26</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="1">
+        <v>13712894000000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="G56" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="1">
+        <v>15485352000000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16.13</v>
+      </c>
+      <c r="G57" s="1">
+        <v>12.53</v>
+      </c>
+      <c r="H57" s="1">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1">
+        <v>16989668000000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>16.59</v>
+      </c>
+      <c r="G58" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="H58" s="1">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1">
+        <v>326126000000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="H59" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="1">
+        <v>406225000000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="1">
+        <v>509570000000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>11.24</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="1">
+        <v>713057000000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="H62" s="1">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="1">
+        <v>991702000000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="H63" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1344130000000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>11.04</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1737456000000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2310471000000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8.68</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2911125000000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>11.29</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3427649000000</v>
+      </c>
+      <c r="F68" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>9.19</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3802734000000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9.23</v>
+      </c>
+      <c r="H69" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4317263000000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12.19</v>
+      </c>
+      <c r="G70" s="1">
+        <v>9.67</v>
+      </c>
+      <c r="H70" s="1">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4734315000000</v>
+      </c>
+      <c r="F71" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5123362000000</v>
+      </c>
+      <c r="F72" s="1">
+        <v>13.36</v>
+      </c>
+      <c r="G72" s="1">
+        <v>10.56</v>
+      </c>
+      <c r="H72" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5663756000000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="G73" s="1">
+        <v>10.85</v>
+      </c>
+      <c r="H73" s="1">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1162597000000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>14.44</v>
+      </c>
+      <c r="H74" s="1">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1376432000000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1887022000000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>12</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2416255000000</v>
+      </c>
+      <c r="F77" s="1">
+        <v>12.36</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2833115000000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>12.44</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3242507000000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="G79" s="1">
+        <v>11.24</v>
+      </c>
+      <c r="H79" s="1">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="1">
+        <v>4274068000000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="G80" s="1">
+        <v>9.76</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4164477000000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="G81" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="H81" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4653723000000</v>
+      </c>
+      <c r="F82" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="G82" s="1">
+        <v>11.46</v>
+      </c>
+      <c r="H82" s="1">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5163250000000</v>
+      </c>
+      <c r="F83" s="1">
+        <v>14.02</v>
+      </c>
+      <c r="G83" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="H83" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5646313000000</v>
+      </c>
+      <c r="F84" s="1">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5690542000000</v>
+      </c>
+      <c r="F85" s="1">
+        <v>14.37</v>
+      </c>
+      <c r="G85" s="1">
+        <v>12.21</v>
+      </c>
+      <c r="H85" s="1">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="1">
+        <v>6144459000000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>14.83</v>
+      </c>
+      <c r="G86" s="1">
+        <v>12.85</v>
+      </c>
+      <c r="H86" s="1">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6695462000000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="G87" s="1">
+        <v>12.88</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="1">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="1">
+        <v>220190000000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="1">
+        <v>304035000000</v>
+      </c>
+      <c r="F92" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="1">
+        <v>353575000000</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" s="1">
+        <v>431063000000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="H94" s="1">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="1">
+        <v>550777000000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+      <c r="E96" s="1">
+        <v>751821000000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="H96" s="1">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="1">
+        <v>943705000000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>10.34</v>
+      </c>
+      <c r="H97" s="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1278361000000</v>
+      </c>
+      <c r="F98" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="H98" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1560180000000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H99" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1874230000000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="G100" s="1">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H100" s="1">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2414593000000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>10.97</v>
+      </c>
+      <c r="G101" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="H101" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2868897000000</v>
+      </c>
+      <c r="F102" s="1">
+        <v>11.33</v>
+      </c>
+      <c r="G102" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="H102" s="1">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="1">
+        <v>3367834000000</v>
+      </c>
+      <c r="F103" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="G103" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3878740000000</v>
+      </c>
+      <c r="F104" s="1">
+        <v>11.65</v>
+      </c>
+      <c r="G104" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H104" s="1">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" t="s">
+        <v>70</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4084499000000</v>
+      </c>
+      <c r="F105" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="G105" s="1">
+        <v>10.24</v>
+      </c>
+      <c r="H105" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4311886000000</v>
+      </c>
+      <c r="F106" s="1">
+        <v>13.67</v>
+      </c>
+      <c r="G106" s="1">
+        <v>10.79</v>
+      </c>
+      <c r="H106" s="1">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4731354000000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>13.86</v>
+      </c>
+      <c r="G107" s="1">
+        <v>11.53</v>
+      </c>
+      <c r="H107" s="1">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="1">
+        <v>5458504000000</v>
+      </c>
+      <c r="F108" s="1">
+        <v>14.64</v>
+      </c>
+      <c r="G108" s="1">
+        <v>11.54</v>
+      </c>
+      <c r="H108" s="1">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="1">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" s="1">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" s="1">
+        <v>81846000000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="H111" s="1">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="1">
+        <v>128261000000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="H112" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="1">
+        <v>143681000000</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" s="1">
+        <v>131713000000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H114" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="1">
+        <v>173222000000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="H115" s="1">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="1">
+        <v>220056000000</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="H116" s="1">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="1">
+        <v>279112744000</v>
+      </c>
+      <c r="F117" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="H117" s="1">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="1">
+        <v>359508049000</v>
+      </c>
+      <c r="F118" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H118" s="1">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="1">
+        <v>463691000000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>10.19</v>
+      </c>
+      <c r="H119" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="1">
+        <v>794702000000</v>
+      </c>
+      <c r="F120" s="1">
+        <v>11.51</v>
+      </c>
+      <c r="H120" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="1">
+        <v>895592738000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>11.37</v>
+      </c>
+      <c r="G121" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="H121" s="1">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" t="s">
+        <v>66</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1170412000000</v>
+      </c>
+      <c r="F122" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="G122" s="1">
+        <v>8.56</v>
+      </c>
+      <c r="H122" s="1">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1380432000000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>10.86</v>
+      </c>
+      <c r="G123" s="1">
+        <v>8.64</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" t="s">
+        <v>100</v>
+      </c>
+      <c r="D124" t="s">
+        <v>68</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1661747000000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="G124" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H124" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" t="s">
+        <v>101</v>
+      </c>
+      <c r="C125" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2033715000000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>11.53</v>
+      </c>
+      <c r="G125" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="H125" s="1">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2226112000000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>9.18</v>
+      </c>
+      <c r="H126" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2340236000000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G127" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="H127" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C128" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2784405000000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>13.22</v>
+      </c>
+      <c r="G128" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="H128" s="1">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3151764000000</v>
+      </c>
+      <c r="F129" s="1">
+        <v>13.29</v>
+      </c>
+      <c r="G129" s="1">
+        <v>10.91</v>
+      </c>
+      <c r="H129" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="1">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" s="1">
+        <v>108416000000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H132" s="1">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" t="s">
+        <v>104</v>
+      </c>
+      <c r="D133" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" s="1">
+        <v>154068000000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H133" s="1">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" t="s">
+        <v>104</v>
+      </c>
+      <c r="D134" t="s">
+        <v>96</v>
+      </c>
+      <c r="E134" s="1">
+        <v>248506000000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="H134" s="1">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" t="s">
+        <v>104</v>
+      </c>
+      <c r="D135" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" s="1">
+        <v>317653000000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" t="s">
+        <v>104</v>
+      </c>
+      <c r="D136" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="1">
+        <v>423074000000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H136" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" t="s">
+        <v>60</v>
+      </c>
+      <c r="E137" s="1">
+        <v>573514010000</v>
+      </c>
+      <c r="F137" s="1">
+        <v>10.73</v>
+      </c>
+      <c r="H137" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" s="1">
+        <v>767895000000</v>
+      </c>
+      <c r="F138" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H138" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>102</v>
+      </c>
+      <c r="B139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" t="s">
+        <v>62</v>
+      </c>
+      <c r="E139" s="1">
+        <v>993773000000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="H139" s="1">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1280847000000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="H140" s="1">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" t="s">
+        <v>104</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1602301000000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>10.86</v>
+      </c>
+      <c r="H141" s="1">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" t="s">
+        <v>104</v>
+      </c>
+      <c r="D142" t="s">
+        <v>65</v>
+      </c>
+      <c r="E142" s="1">
+        <v>2020011000000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G142" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H142" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2325105000000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="G143" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="H143" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="1">
+        <v>2862710000000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10.69</v>
+      </c>
+      <c r="G144" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="H144" s="1">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3346232000000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="G145" s="1">
+        <v>9.19</v>
+      </c>
+      <c r="H145" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="1">
+        <v>3786073000000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="G146" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="H146" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D147" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" s="1">
+        <v>4340262000000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>11.85</v>
+      </c>
+      <c r="G147" s="1">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H147" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" t="s">
+        <v>103</v>
+      </c>
+      <c r="C148" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" t="s">
+        <v>71</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4656286000000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="G148" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="H148" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" s="1">
+        <v>5117026000000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>13.17</v>
+      </c>
+      <c r="G149" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="H149" s="1">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="1">
+        <v>5425856000000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="G150" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="H150" s="1">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" t="s">
+        <v>107</v>
+      </c>
+      <c r="D151" t="s">
+        <v>94</v>
+      </c>
+      <c r="E151" s="1">
+        <v>195420034000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="H151" s="1">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>105</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152" s="1">
+        <v>292222168000</v>
+      </c>
+      <c r="F152" s="1">
+        <v>9.49</v>
+      </c>
+      <c r="H152" s="1">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" t="s">
+        <v>107</v>
+      </c>
+      <c r="D153" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="1">
+        <v>369130931000</v>
+      </c>
+      <c r="F153" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H153" s="1">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>105</v>
+      </c>
+      <c r="B154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" t="s">
+        <v>107</v>
+      </c>
+      <c r="D154" t="s">
+        <v>97</v>
+      </c>
+      <c r="E154" s="1">
+        <v>423312444000</v>
+      </c>
+      <c r="F154" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="H154" s="1">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>105</v>
+      </c>
+      <c r="B155" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" t="s">
+        <v>107</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" s="1">
+        <v>551503000000</v>
+      </c>
+      <c r="F155" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="H155" s="1">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" t="s">
+        <v>107</v>
+      </c>
+      <c r="D156" t="s">
+        <v>60</v>
+      </c>
+      <c r="E156" s="1">
+        <v>700588000000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="H156" s="1">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>105</v>
+      </c>
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" t="s">
+        <v>107</v>
+      </c>
+      <c r="D157" t="s">
+        <v>61</v>
+      </c>
+      <c r="E157" s="1">
+        <v>917201000000</v>
+      </c>
+      <c r="F157" s="1">
+        <v>11.34</v>
+      </c>
+      <c r="H157" s="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>105</v>
+      </c>
+      <c r="B158" t="s">
+        <v>106</v>
+      </c>
+      <c r="C158" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" t="s">
+        <v>62</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1161776000000</v>
+      </c>
+      <c r="F158" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="H158" s="1">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>105</v>
+      </c>
+      <c r="B159" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" t="s">
+        <v>107</v>
+      </c>
+      <c r="D159" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1446883000000</v>
+      </c>
+      <c r="F159" s="1">
+        <v>11.47</v>
+      </c>
+      <c r="H159" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1760884000000</v>
+      </c>
+      <c r="F160" s="1">
+        <v>11.53</v>
+      </c>
+      <c r="H160" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" t="s">
+        <v>65</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2077755000000</v>
+      </c>
+      <c r="F161" s="1">
+        <v>12.14</v>
+      </c>
+      <c r="G161" s="1">
+        <v>8.49</v>
+      </c>
+      <c r="H161" s="1">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>105</v>
+      </c>
+      <c r="B162" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2744991000000</v>
+      </c>
+      <c r="F162" s="1">
+        <v>11.14</v>
+      </c>
+      <c r="G162" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="H162" s="1">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" t="s">
+        <v>107</v>
+      </c>
+      <c r="D163" t="s">
+        <v>67</v>
+      </c>
+      <c r="E163" s="1">
+        <v>2748687000000</v>
+      </c>
+      <c r="F163" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="G163" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="H163" s="1">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>105</v>
+      </c>
+      <c r="B164" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" t="s">
+        <v>107</v>
+      </c>
+      <c r="D164" t="s">
+        <v>68</v>
+      </c>
+      <c r="E164" s="1">
+        <v>3208152000000</v>
+      </c>
+      <c r="F164" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="G164" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="H164" s="1">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>105</v>
+      </c>
+      <c r="B165" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165" t="s">
+        <v>107</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3209980000000</v>
+      </c>
+      <c r="F165" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="G165" s="1">
+        <v>11.54</v>
+      </c>
+      <c r="H165" s="1">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" t="s">
+        <v>107</v>
+      </c>
+      <c r="D166" t="s">
+        <v>70</v>
+      </c>
+      <c r="E166" s="1">
+        <v>3530745000000</v>
+      </c>
+      <c r="F166" s="1">
+        <v>15.48</v>
+      </c>
+      <c r="G166" s="1">
+        <v>13.02</v>
+      </c>
+      <c r="H166" s="1">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>105</v>
+      </c>
+      <c r="B167" t="s">
+        <v>106</v>
+      </c>
+      <c r="C167" t="s">
+        <v>107</v>
+      </c>
+      <c r="D167" t="s">
+        <v>71</v>
+      </c>
+      <c r="E167" s="1">
+        <v>4092890000000</v>
+      </c>
+      <c r="F167" s="1">
+        <v>15.68</v>
+      </c>
+      <c r="G167" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="H167" s="1">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>105</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" t="s">
+        <v>107</v>
+      </c>
+      <c r="D168" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" s="1">
+        <v>4606786000000</v>
+      </c>
+      <c r="F168" s="1">
+        <v>15.54</v>
+      </c>
+      <c r="G168" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="H168" s="1">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B169" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="1">
+        <v>4298888000000</v>
+      </c>
+      <c r="F169" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="G169" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="H169" s="1">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>108</v>
+      </c>
+      <c r="B170" t="s">
+        <v>109</v>
+      </c>
+      <c r="C170" t="s">
+        <v>110</v>
+      </c>
+      <c r="D170" t="s">
+        <v>60</v>
+      </c>
+      <c r="E170" s="1">
+        <v>623300000000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="H170" s="1">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>108</v>
+      </c>
+      <c r="B171" t="s">
+        <v>109</v>
+      </c>
+      <c r="C171" t="s">
+        <v>110</v>
+      </c>
+      <c r="D171" t="s">
+        <v>61</v>
+      </c>
+      <c r="E171" s="1">
+        <v>746547000000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>14.32</v>
+      </c>
+      <c r="H171" s="1">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B172" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172" t="s">
+        <v>110</v>
+      </c>
+      <c r="D172" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1027122000000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="H172" s="1">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>108</v>
+      </c>
+      <c r="B173" t="s">
+        <v>109</v>
+      </c>
+      <c r="C173" t="s">
+        <v>110</v>
+      </c>
+      <c r="D173" t="s">
+        <v>63</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1385262000000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="H173" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" t="s">
+        <v>109</v>
+      </c>
+      <c r="C174" t="s">
+        <v>110</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1702165000000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="H174" s="1">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175" t="s">
+        <v>109</v>
+      </c>
+      <c r="C175" t="s">
+        <v>110</v>
+      </c>
+      <c r="D175" t="s">
+        <v>65</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1948636000000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>13.44</v>
+      </c>
+      <c r="G175" s="1">
+        <v>9.89</v>
+      </c>
+      <c r="H175" s="1">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176" t="s">
+        <v>109</v>
+      </c>
+      <c r="C176" t="s">
+        <v>110</v>
+      </c>
+      <c r="D176" t="s">
+        <v>66</v>
+      </c>
+      <c r="E176" s="1">
+        <v>2600494000000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>11.24</v>
+      </c>
+      <c r="G176" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="H176" s="1">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" t="s">
+        <v>109</v>
+      </c>
+      <c r="C177" t="s">
+        <v>110</v>
+      </c>
+      <c r="D177" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="1">
+        <v>2941627000000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>12.33</v>
+      </c>
+      <c r="G177" s="1">
+        <v>8.99</v>
+      </c>
+      <c r="H177" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>108</v>
+      </c>
+      <c r="B178" t="s">
+        <v>109</v>
+      </c>
+      <c r="C178" t="s">
+        <v>110</v>
+      </c>
+      <c r="D178" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3468135000000</v>
+      </c>
+      <c r="F178" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="G178" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="H178" s="1">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3964448000000</v>
+      </c>
+      <c r="F179" s="1">
+        <v>11.98</v>
+      </c>
+      <c r="G179" s="1">
+        <v>9.65</v>
+      </c>
+      <c r="H179" s="1">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>108</v>
+      </c>
+      <c r="B180" t="s">
+        <v>109</v>
+      </c>
+      <c r="C180" t="s">
+        <v>110</v>
+      </c>
+      <c r="D180" t="s">
+        <v>70</v>
+      </c>
+      <c r="E180" s="1">
+        <v>4317502000000</v>
+      </c>
+      <c r="F180" s="1">
+        <v>11.65</v>
+      </c>
+      <c r="G180" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="H180" s="1">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181" t="s">
+        <v>110</v>
+      </c>
+      <c r="D181" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181" s="1">
+        <v>4677713000000</v>
+      </c>
+      <c r="F181" s="1">
+        <v>12.47</v>
+      </c>
+      <c r="G181" s="1">
+        <v>9.43</v>
+      </c>
+      <c r="H181" s="1">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>108</v>
+      </c>
+      <c r="B182" t="s">
+        <v>109</v>
+      </c>
+      <c r="C182" t="s">
+        <v>110</v>
+      </c>
+      <c r="D182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E182" s="1">
+        <v>5113585000000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>12.44</v>
+      </c>
+      <c r="G182" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H182" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>108</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183" t="s">
+        <v>110</v>
+      </c>
+      <c r="D183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E183" s="1">
+        <v>5393248000000</v>
+      </c>
+      <c r="F183" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="G183" s="1">
+        <v>10.18</v>
+      </c>
+      <c r="H183" s="1">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" s="1">
+        <v>932933060000</v>
+      </c>
+      <c r="F184" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="H184" s="1">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" t="s">
+        <v>112</v>
+      </c>
+      <c r="C185" t="s">
+        <v>113</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1129147000000</v>
+      </c>
+      <c r="F185" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="H185" s="1">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" t="s">
+        <v>112</v>
+      </c>
+      <c r="C186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D186" t="s">
+        <v>65</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1383605000000</v>
+      </c>
+      <c r="F186" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="G186" s="1">
+        <v>8</v>
+      </c>
+      <c r="H186" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>111</v>
+      </c>
+      <c r="B187" t="s">
+        <v>112</v>
+      </c>
+      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="D187" t="s">
+        <v>66</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1658861000000</v>
+      </c>
+      <c r="F187" s="1">
+        <v>10.57</v>
+      </c>
+      <c r="G187" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="H187" s="1">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>111</v>
+      </c>
+      <c r="B188" t="s">
+        <v>112</v>
+      </c>
+      <c r="C188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1898231000000</v>
+      </c>
+      <c r="F188" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="G188" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="H188" s="1">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>111</v>
+      </c>
+      <c r="B189" t="s">
+        <v>112</v>
+      </c>
+      <c r="C189" t="s">
+        <v>113</v>
+      </c>
+      <c r="D189" t="s">
+        <v>68</v>
+      </c>
+      <c r="E189" s="1">
+        <v>2185516000000</v>
+      </c>
+      <c r="F189" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="G189" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="H189" s="1">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190" t="s">
+        <v>112</v>
+      </c>
+      <c r="C190" t="s">
+        <v>113</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="1">
+        <v>2665037000000</v>
+      </c>
+      <c r="F190" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G190" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="H190" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+      <c r="C191" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" t="s">
+        <v>70</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2856800000000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="G191" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="H191" s="1">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>111</v>
+      </c>
+      <c r="B192" t="s">
+        <v>112</v>
+      </c>
+      <c r="C192" t="s">
+        <v>113</v>
+      </c>
+      <c r="D192" t="s">
+        <v>71</v>
+      </c>
+      <c r="E192" s="1">
+        <v>3166668000000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="G192" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="H192" s="1">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" t="s">
+        <v>112</v>
+      </c>
+      <c r="C193" t="s">
+        <v>113</v>
+      </c>
+      <c r="D193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3456054000000</v>
+      </c>
+      <c r="F193" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="G193" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="H193" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>111</v>
+      </c>
+      <c r="B194" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" t="s">
+        <v>113</v>
+      </c>
+      <c r="D194" t="s">
+        <v>73</v>
+      </c>
+      <c r="E194" s="1">
+        <v>3837489000000</v>
+      </c>
+      <c r="F194" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G194" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="H194" s="1">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>114</v>
+      </c>
+      <c r="B195" t="s">
+        <v>115</v>
+      </c>
+      <c r="C195" t="s">
+        <v>116</v>
+      </c>
+      <c r="D195" t="s">
+        <v>95</v>
+      </c>
+      <c r="E195" s="1">
+        <v>121575000000</v>
+      </c>
+      <c r="F195" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="H195" s="1">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>114</v>
+      </c>
+      <c r="B196" t="s">
+        <v>115</v>
+      </c>
+      <c r="C196" t="s">
+        <v>116</v>
+      </c>
+      <c r="D196" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="1">
+        <v>175177000000</v>
+      </c>
+      <c r="F196" s="1">
+        <v>8.61</v>
+      </c>
+      <c r="H196" s="1">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>114</v>
+      </c>
+      <c r="B197" t="s">
+        <v>115</v>
+      </c>
+      <c r="C197" t="s">
+        <v>116</v>
+      </c>
+      <c r="D197" t="s">
+        <v>97</v>
+      </c>
+      <c r="E197" s="1">
+        <v>196482000000</v>
+      </c>
+      <c r="F197" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="H197" s="1">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>114</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198" t="s">
+        <v>116</v>
+      </c>
+      <c r="D198" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="1">
+        <v>231768000000</v>
+      </c>
+      <c r="F198" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="H198" s="1">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>114</v>
+      </c>
+      <c r="B199" t="s">
+        <v>115</v>
+      </c>
+      <c r="C199" t="s">
+        <v>116</v>
+      </c>
+      <c r="D199" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="1">
+        <v>292651000000</v>
+      </c>
+      <c r="F199" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="H199" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>114</v>
+      </c>
+      <c r="B200" t="s">
+        <v>115</v>
+      </c>
+      <c r="C200" t="s">
+        <v>116</v>
+      </c>
+      <c r="D200" t="s">
+        <v>61</v>
+      </c>
+      <c r="E200" s="1">
+        <v>354001000000</v>
+      </c>
+      <c r="F200" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="H200" s="1">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>114</v>
+      </c>
+      <c r="B201" t="s">
+        <v>115</v>
+      </c>
+      <c r="C201" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" t="s">
+        <v>62</v>
+      </c>
+      <c r="E201" s="1">
+        <v>431869000000</v>
+      </c>
+      <c r="F201" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H201" s="1">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>114</v>
+      </c>
+      <c r="B202" t="s">
+        <v>115</v>
+      </c>
+      <c r="C202" t="s">
+        <v>116</v>
+      </c>
+      <c r="D202" t="s">
+        <v>63</v>
+      </c>
+      <c r="E202" s="1">
+        <v>518722000000</v>
+      </c>
+      <c r="F202" s="1">
+        <v>10.58</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>114</v>
+      </c>
+      <c r="B203" t="s">
+        <v>115</v>
+      </c>
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="1">
+        <v>711821000000</v>
+      </c>
+      <c r="F203" s="1">
+        <v>11.68</v>
+      </c>
+      <c r="H203" s="1">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>114</v>
+      </c>
+      <c r="B204" t="s">
+        <v>115</v>
+      </c>
+      <c r="C204" t="s">
+        <v>116</v>
+      </c>
+      <c r="D204" t="s">
+        <v>65</v>
+      </c>
+      <c r="E204" s="1">
+        <v>873214002000</v>
+      </c>
+      <c r="F204" s="1">
+        <v>10.85</v>
+      </c>
+      <c r="H204" s="1">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>114</v>
+      </c>
+      <c r="B205" t="s">
+        <v>115</v>
+      </c>
+      <c r="C205" t="s">
+        <v>116</v>
+      </c>
+      <c r="D205" t="s">
+        <v>66</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1069456000000</v>
+      </c>
+      <c r="F205" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G205" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="H205" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" t="s">
+        <v>115</v>
+      </c>
+      <c r="C206" t="s">
+        <v>116</v>
+      </c>
+      <c r="D206" t="s">
+        <v>67</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1201101000000</v>
+      </c>
+      <c r="F206" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="G206" s="1">
+        <v>8.49</v>
+      </c>
+      <c r="H206" s="1">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>114</v>
+      </c>
+      <c r="B207" t="s">
+        <v>115</v>
+      </c>
+      <c r="C207" t="s">
+        <v>116</v>
+      </c>
+      <c r="D207" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1330391000000</v>
+      </c>
+      <c r="F207" s="1">
+        <v>10.85</v>
+      </c>
+      <c r="G207" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="H207" s="1">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>114</v>
+      </c>
+      <c r="B208" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" t="s">
+        <v>116</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1575751000000</v>
+      </c>
+      <c r="F208" s="1">
+        <v>11.36</v>
+      </c>
+      <c r="G208" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H208" s="1">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>114</v>
+      </c>
+      <c r="B209" t="s">
+        <v>115</v>
+      </c>
+      <c r="C209" t="s">
+        <v>116</v>
+      </c>
+      <c r="D209" t="s">
+        <v>70</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1802826000000</v>
+      </c>
+      <c r="F209" s="1">
+        <v>12.37</v>
+      </c>
+      <c r="G209" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="H209" s="1">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>114</v>
+      </c>
+      <c r="B210" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" t="s">
+        <v>116</v>
+      </c>
+      <c r="D210" t="s">
+        <v>71</v>
+      </c>
+      <c r="E210" s="1">
+        <v>2092350000000</v>
+      </c>
+      <c r="F210" s="1">
+        <v>13.19</v>
+      </c>
+      <c r="G210" s="1">
+        <v>10.43</v>
+      </c>
+      <c r="H210" s="1">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>114</v>
+      </c>
+      <c r="B211" t="s">
+        <v>115</v>
+      </c>
+      <c r="C211" t="s">
+        <v>116</v>
+      </c>
+      <c r="D211" t="s">
+        <v>72</v>
+      </c>
+      <c r="E211" s="1">
+        <v>2260986000000</v>
+      </c>
+      <c r="F211" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="G211" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="H211" s="1">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>114</v>
+      </c>
+      <c r="B212" t="s">
+        <v>115</v>
+      </c>
+      <c r="C212" t="s">
+        <v>116</v>
+      </c>
+      <c r="D212" t="s">
+        <v>73</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2529132000000</v>
+      </c>
+      <c r="F212" s="1">
+        <v>13.08</v>
+      </c>
+      <c r="G212" s="1">
+        <v>11.17</v>
+      </c>
+      <c r="H212" s="1">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>117</v>
+      </c>
+      <c r="B213" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" t="s">
+        <v>119</v>
+      </c>
+      <c r="D213" t="s">
+        <v>73</v>
+      </c>
+      <c r="E213" s="1">
+        <v>427946826000</v>
+      </c>
+      <c r="F213" s="1">
+        <v>12.54</v>
+      </c>
+      <c r="G213" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="H213" s="1">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>120</v>
+      </c>
+      <c r="B214" t="s">
+        <v>121</v>
+      </c>
+      <c r="C214" t="s">
+        <v>122</v>
+      </c>
+      <c r="D214" t="s">
+        <v>60</v>
+      </c>
+      <c r="E214" s="1">
+        <v>157646395000</v>
+      </c>
+      <c r="F214" s="1">
+        <v>20.11</v>
+      </c>
+      <c r="H214" s="1">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>120</v>
+      </c>
+      <c r="B215" t="s">
+        <v>121</v>
+      </c>
+      <c r="C215" t="s">
+        <v>122</v>
+      </c>
+      <c r="D215" t="s">
+        <v>61</v>
+      </c>
+      <c r="E215" s="1">
+        <v>188052859000</v>
+      </c>
+      <c r="F215" s="1">
+        <v>19.66</v>
+      </c>
+      <c r="H215" s="1">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>120</v>
+      </c>
+      <c r="B216" t="s">
+        <v>121</v>
+      </c>
+      <c r="C216" t="s">
+        <v>122</v>
+      </c>
+      <c r="D216" t="s">
+        <v>62</v>
+      </c>
+      <c r="E216" s="1">
+        <v>289636120000</v>
+      </c>
+      <c r="F216" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="H216" s="1">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>120</v>
+      </c>
+      <c r="B217" t="s">
+        <v>121</v>
+      </c>
+      <c r="C217" t="s">
+        <v>122</v>
+      </c>
+      <c r="D217" t="s">
+        <v>63</v>
+      </c>
+      <c r="E217" s="1">
+        <v>391563269000</v>
+      </c>
+      <c r="F217" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="H217" s="1">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>120</v>
+      </c>
+      <c r="B218" t="s">
+        <v>121</v>
+      </c>
+      <c r="C218" t="s">
+        <v>122</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="1">
+        <v>489490909000</v>
+      </c>
+      <c r="F218" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="H218" s="1">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>120</v>
+      </c>
+      <c r="B219" t="s">
+        <v>121</v>
+      </c>
+      <c r="C219" t="s">
+        <v>122</v>
+      </c>
+      <c r="D219" t="s">
+        <v>65</v>
+      </c>
+      <c r="E219" s="1">
+        <v>619378661000</v>
+      </c>
+      <c r="F219" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="H219" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>120</v>
+      </c>
+      <c r="B220" t="s">
+        <v>121</v>
+      </c>
+      <c r="C220" t="s">
+        <v>122</v>
+      </c>
+      <c r="D220" t="s">
+        <v>66</v>
+      </c>
+      <c r="E220" s="1">
+        <v>887884232000</v>
+      </c>
+      <c r="F220" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="G220" s="1">
+        <v>8.81</v>
+      </c>
+      <c r="H220" s="1">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>120</v>
+      </c>
+      <c r="B221" t="s">
+        <v>121</v>
+      </c>
+      <c r="C221" t="s">
+        <v>122</v>
+      </c>
+      <c r="D221" t="s">
+        <v>67</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1048272000000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>11.08</v>
+      </c>
+      <c r="G221" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="H221" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>120</v>
+      </c>
+      <c r="B222" t="s">
+        <v>121</v>
+      </c>
+      <c r="C222" t="s">
+        <v>122</v>
+      </c>
+      <c r="D222" t="s">
+        <v>68</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1276034000000</v>
+      </c>
+      <c r="F222" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="G222" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="H222" s="1">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>120</v>
+      </c>
+      <c r="B223" t="s">
+        <v>121</v>
+      </c>
+      <c r="C223" t="s">
+        <v>122</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1514688000000</v>
+      </c>
+      <c r="F223" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G223" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="H223" s="1">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>120</v>
+      </c>
+      <c r="B224" t="s">
+        <v>121</v>
+      </c>
+      <c r="C224" t="s">
+        <v>122</v>
+      </c>
+      <c r="D224" t="s">
+        <v>70</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1770950000000</v>
+      </c>
+      <c r="F224" s="1">
+        <v>12.41</v>
+      </c>
+      <c r="G224" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="H224" s="1">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>120</v>
+      </c>
+      <c r="B225" t="s">
+        <v>121</v>
+      </c>
+      <c r="C225" t="s">
+        <v>122</v>
+      </c>
+      <c r="D225" t="s">
+        <v>71</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1967050000000</v>
+      </c>
+      <c r="F225" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="G225" s="1">
+        <v>9.85</v>
+      </c>
+      <c r="H225" s="1">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>120</v>
+      </c>
+      <c r="B226" t="s">
+        <v>121</v>
+      </c>
+      <c r="C226" t="s">
+        <v>122</v>
+      </c>
+      <c r="D226" t="s">
+        <v>72</v>
+      </c>
+      <c r="E226" s="1">
+        <v>2067661000000</v>
+      </c>
+      <c r="F226" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="G226" s="1">
+        <v>10.09</v>
+      </c>
+      <c r="H226" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>120</v>
+      </c>
+      <c r="B227" t="s">
+        <v>121</v>
+      </c>
+      <c r="C227" t="s">
+        <v>122</v>
+      </c>
+      <c r="D227" t="s">
+        <v>73</v>
+      </c>
+      <c r="E227" s="1">
+        <v>2103887000000</v>
+      </c>
+      <c r="F227" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="G227" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="H227" s="1">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>123</v>
+      </c>
+      <c r="B228" t="s">
+        <v>124</v>
+      </c>
+      <c r="C228" t="s">
+        <v>125</v>
+      </c>
+      <c r="D228" t="s">
+        <v>68</v>
+      </c>
+      <c r="E228" s="1">
+        <v>894119145000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="G228" s="1">
+        <v>10.32</v>
+      </c>
+      <c r="H228" s="1">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229" t="s">
+        <v>124</v>
+      </c>
+      <c r="C229" t="s">
+        <v>125</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1037999210000</v>
+      </c>
+      <c r="F229" s="1">
+        <v>13.17</v>
+      </c>
+      <c r="G229" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="H229" s="1">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>123</v>
+      </c>
+      <c r="B230" t="s">
+        <v>124</v>
+      </c>
+      <c r="C230" t="s">
+        <v>125</v>
+      </c>
+      <c r="D230" t="s">
+        <v>70</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1185925725000</v>
+      </c>
+      <c r="F230" s="1">
+        <v>14.33</v>
+      </c>
+      <c r="G230" s="1">
+        <v>12.37</v>
+      </c>
+      <c r="H230" s="1">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>123</v>
+      </c>
+      <c r="B231" t="s">
+        <v>124</v>
+      </c>
+      <c r="C231" t="s">
+        <v>125</v>
+      </c>
+      <c r="D231" t="s">
+        <v>71</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1435652196000</v>
+      </c>
+      <c r="F231" s="1">
+        <v>13</v>
+      </c>
+      <c r="G231" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="H231" s="1">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>123</v>
+      </c>
+      <c r="B232" t="s">
+        <v>124</v>
+      </c>
+      <c r="C232" t="s">
+        <v>125</v>
+      </c>
+      <c r="D232" t="s">
+        <v>72</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1584413590000</v>
+      </c>
+      <c r="F232" s="1">
+        <v>13.84</v>
+      </c>
+      <c r="G232" s="1">
+        <v>10.92</v>
+      </c>
+      <c r="H232" s="1">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>123</v>
+      </c>
+      <c r="B233" t="s">
+        <v>124</v>
+      </c>
+      <c r="C233" t="s">
+        <v>125</v>
+      </c>
+      <c r="D233" t="s">
+        <v>73</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1780854796000</v>
+      </c>
+      <c r="F233" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="G233" s="1">
+        <v>10.46</v>
+      </c>
+      <c r="H233" s="1">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>126</v>
+      </c>
+      <c r="B234" t="s">
+        <v>127</v>
+      </c>
+      <c r="C234" t="s">
+        <v>128</v>
+      </c>
+      <c r="D234" t="s">
+        <v>72</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1164197215000</v>
+      </c>
+      <c r="F234" s="1">
+        <v>14.24</v>
+      </c>
+      <c r="G234" s="1">
+        <v>10.94</v>
+      </c>
+      <c r="H234" s="1">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>126</v>
+      </c>
+      <c r="B235" t="s">
+        <v>127</v>
+      </c>
+      <c r="C235" t="s">
+        <v>128</v>
+      </c>
+      <c r="D235" t="s">
+        <v>73</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1330565000000</v>
+      </c>
+      <c r="F235" s="1">
+        <v>12.93</v>
+      </c>
+      <c r="G235" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="H235" s="1">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>129</v>
+      </c>
+      <c r="B236" t="s">
+        <v>130</v>
+      </c>
+      <c r="C236" t="s">
+        <v>131</v>
+      </c>
+      <c r="D236" t="s">
+        <v>60</v>
+      </c>
+      <c r="E236" s="1">
+        <v>34619868000</v>
+      </c>
+      <c r="F236" s="1">
+        <v>30.67</v>
+      </c>
+      <c r="H236" s="1">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>129</v>
+      </c>
+      <c r="B237" t="s">
+        <v>130</v>
+      </c>
+      <c r="C237" t="s">
+        <v>131</v>
+      </c>
+      <c r="D237" t="s">
+        <v>61</v>
+      </c>
+      <c r="E237" s="1">
+        <v>49406288000</v>
+      </c>
+      <c r="F237" s="1">
+        <v>24.12</v>
+      </c>
+      <c r="H237" s="1">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>129</v>
+      </c>
+      <c r="B238" t="s">
+        <v>130</v>
+      </c>
+      <c r="C238" t="s">
+        <v>131</v>
+      </c>
+      <c r="D238" t="s">
+        <v>62</v>
+      </c>
+      <c r="E238" s="1">
+        <v>90261914000</v>
+      </c>
+      <c r="F238" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="H238" s="1">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>129</v>
+      </c>
+      <c r="B239" t="s">
+        <v>130</v>
+      </c>
+      <c r="C239" t="s">
+        <v>131</v>
+      </c>
+      <c r="D239" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" s="1">
+        <v>127789456000</v>
+      </c>
+      <c r="F239" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="H239" s="1">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>129</v>
+      </c>
+      <c r="B240" t="s">
+        <v>130</v>
+      </c>
+      <c r="C240" t="s">
+        <v>131</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="1">
+        <v>168253765000</v>
+      </c>
+      <c r="F240" s="1">
+        <v>14.96</v>
+      </c>
+      <c r="H240" s="1">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>129</v>
+      </c>
+      <c r="B241" t="s">
+        <v>130</v>
+      </c>
+      <c r="C241" t="s">
+        <v>131</v>
+      </c>
+      <c r="D241" t="s">
+        <v>65</v>
+      </c>
+      <c r="E241" s="1">
+        <v>185107391000</v>
+      </c>
+      <c r="F241" s="1">
+        <v>14.98</v>
+      </c>
+      <c r="G241" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="H241" s="1">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>129</v>
+      </c>
+      <c r="B242" t="s">
+        <v>130</v>
+      </c>
+      <c r="C242" t="s">
+        <v>131</v>
+      </c>
+      <c r="D242" t="s">
+        <v>66</v>
+      </c>
+      <c r="E242" s="1">
+        <v>264409287000</v>
+      </c>
+      <c r="F242" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="G242" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="H242" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>129</v>
+      </c>
+      <c r="B243" t="s">
+        <v>130</v>
+      </c>
+      <c r="C243" t="s">
+        <v>131</v>
+      </c>
+      <c r="D243" t="s">
+        <v>67</v>
+      </c>
+      <c r="E243" s="1">
+        <v>379684659000</v>
+      </c>
+      <c r="F243" s="1">
+        <v>12</v>
+      </c>
+      <c r="G243" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="H243" s="1">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>129</v>
+      </c>
+      <c r="B244" t="s">
+        <v>130</v>
+      </c>
+      <c r="C244" t="s">
+        <v>131</v>
+      </c>
+      <c r="D244" t="s">
+        <v>68</v>
+      </c>
+      <c r="E244" s="1">
+        <v>503643132000</v>
+      </c>
+      <c r="F244" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="G244" s="1">
+        <v>10.35</v>
+      </c>
+      <c r="H244" s="1">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>129</v>
+      </c>
+      <c r="B245" t="s">
+        <v>130</v>
+      </c>
+      <c r="C245" t="s">
+        <v>131</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="1">
+        <v>633880855000</v>
+      </c>
+      <c r="F245" s="1">
+        <v>13.71</v>
+      </c>
+      <c r="G245" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="H245" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>129</v>
+      </c>
+      <c r="B246" t="s">
+        <v>130</v>
+      </c>
+      <c r="C246" t="s">
+        <v>131</v>
+      </c>
+      <c r="D246" t="s">
+        <v>70</v>
+      </c>
+      <c r="E246" s="1">
+        <v>714968385000</v>
+      </c>
+      <c r="F246" s="1">
+        <v>12.93</v>
+      </c>
+      <c r="G246" s="1">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="H246" s="1">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>129</v>
+      </c>
+      <c r="B247" t="s">
+        <v>130</v>
+      </c>
+      <c r="C247" t="s">
+        <v>131</v>
+      </c>
+      <c r="D247" t="s">
+        <v>71</v>
+      </c>
+      <c r="E247" s="1">
+        <v>798546693000</v>
+      </c>
+      <c r="F247" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="G247" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="H247" s="1">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>129</v>
+      </c>
+      <c r="B248" t="s">
+        <v>130</v>
+      </c>
+      <c r="C248" t="s">
+        <v>131</v>
+      </c>
+      <c r="D248" t="s">
+        <v>72</v>
+      </c>
+      <c r="E248" s="1">
+        <v>867075398000</v>
+      </c>
+      <c r="F248" s="1">
+        <v>13.03</v>
+      </c>
+      <c r="G248" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="H248" s="1">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>129</v>
+      </c>
+      <c r="B249" t="s">
+        <v>130</v>
+      </c>
+      <c r="C249" t="s">
+        <v>131</v>
+      </c>
+      <c r="D249" t="s">
+        <v>73</v>
+      </c>
+      <c r="E249" s="1">
+        <v>971966725000</v>
+      </c>
+      <c r="F249" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="G249" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="H249" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>132</v>
+      </c>
+      <c r="B250" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" t="s">
+        <v>134</v>
+      </c>
+      <c r="D250" t="s">
+        <v>70</v>
+      </c>
+      <c r="E250" s="1">
+        <v>238912646000</v>
+      </c>
+      <c r="F250" s="1">
+        <v>13.66</v>
+      </c>
+      <c r="G250" s="1">
+        <v>10.48</v>
+      </c>
+      <c r="H250" s="1">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>132</v>
+      </c>
+      <c r="B251" t="s">
+        <v>133</v>
+      </c>
+      <c r="C251" t="s">
+        <v>134</v>
+      </c>
+      <c r="D251" t="s">
+        <v>71</v>
+      </c>
+      <c r="E251" s="1">
+        <v>281136400000</v>
+      </c>
+      <c r="F251" s="1">
+        <v>14.08</v>
+      </c>
+      <c r="G251" s="1">
+        <v>11.15</v>
+      </c>
+      <c r="H251" s="1">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>132</v>
+      </c>
+      <c r="B252" t="s">
+        <v>133</v>
+      </c>
+      <c r="C252" t="s">
+        <v>134</v>
+      </c>
+      <c r="D252" t="s">
+        <v>72</v>
+      </c>
+      <c r="E252" s="1">
+        <v>353746562000</v>
+      </c>
+      <c r="F252" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="G252" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="H252" s="1">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>132</v>
+      </c>
+      <c r="B253" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253" t="s">
+        <v>134</v>
+      </c>
+      <c r="D253" t="s">
+        <v>73</v>
+      </c>
+      <c r="E253" s="1">
+        <v>436526073000</v>
+      </c>
+      <c r="F253" s="1">
+        <v>14.23</v>
+      </c>
+      <c r="G253" s="1">
+        <v>10.65</v>
+      </c>
+      <c r="H253" s="1">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>135</v>
+      </c>
+      <c r="B254" t="s">
+        <v>136</v>
+      </c>
+      <c r="C254" t="s">
+        <v>137</v>
+      </c>
+      <c r="D254" t="s">
+        <v>71</v>
+      </c>
+      <c r="E254" s="1">
+        <v>168161780000</v>
+      </c>
+      <c r="F254" s="1">
+        <v>14.17</v>
+      </c>
+      <c r="G254" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="H254" s="1">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>135</v>
+      </c>
+      <c r="B255" t="s">
+        <v>136</v>
+      </c>
+      <c r="C255" t="s">
+        <v>137</v>
+      </c>
+      <c r="D255" t="s">
+        <v>72</v>
+      </c>
+      <c r="E255" s="1">
+        <v>187176749000</v>
+      </c>
+      <c r="F255" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="G255" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="H255" s="1">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>135</v>
+      </c>
+      <c r="B256" t="s">
+        <v>136</v>
+      </c>
+      <c r="C256" t="s">
+        <v>137</v>
+      </c>
+      <c r="D256" t="s">
+        <v>73</v>
+      </c>
+      <c r="E256" s="1">
+        <v>206626255000</v>
+      </c>
+      <c r="F256" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G256" s="1">
+        <v>12.37</v>
+      </c>
+      <c r="H256" s="1">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>138</v>
+      </c>
+      <c r="B257" t="s">
+        <v>139</v>
+      </c>
+      <c r="C257" t="s">
+        <v>140</v>
+      </c>
+      <c r="D257" t="s">
+        <v>72</v>
+      </c>
+      <c r="E257" s="1">
+        <v>712885700000</v>
+      </c>
+      <c r="F257" s="1">
+        <v>14.88</v>
+      </c>
+      <c r="G257" s="1">
+        <v>12.44</v>
+      </c>
+      <c r="H257" s="1">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>138</v>
+      </c>
+      <c r="B258" t="s">
+        <v>139</v>
+      </c>
+      <c r="C258" t="s">
+        <v>140</v>
+      </c>
+      <c r="D258" t="s">
+        <v>73</v>
+      </c>
+      <c r="E258" s="1">
+        <v>783924200000</v>
+      </c>
+      <c r="F258" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="G258" s="1">
+        <v>11.97</v>
+      </c>
+      <c r="H258" s="1">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>141</v>
+      </c>
+      <c r="B259" t="s">
+        <v>142</v>
+      </c>
+      <c r="C259" t="s">
+        <v>143</v>
+      </c>
+      <c r="D259" t="s">
+        <v>60</v>
+      </c>
+      <c r="E259" s="1">
+        <v>40173390000</v>
+      </c>
+      <c r="F259" s="1">
+        <v>21</v>
+      </c>
+      <c r="H259" s="1">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>141</v>
+      </c>
+      <c r="B260" t="s">
+        <v>142</v>
+      </c>
+      <c r="C260" t="s">
+        <v>143</v>
+      </c>
+      <c r="D260" t="s">
+        <v>61</v>
+      </c>
+      <c r="E260" s="1">
+        <v>57561170000</v>
+      </c>
+      <c r="F260" s="1">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="H260" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>141</v>
+      </c>
+      <c r="B261" t="s">
+        <v>142</v>
+      </c>
+      <c r="C261" t="s">
+        <v>143</v>
+      </c>
+      <c r="D261" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" s="1">
+        <v>97105336000</v>
+      </c>
+      <c r="F261" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="H261" s="1">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>141</v>
+      </c>
+      <c r="B262" t="s">
+        <v>142</v>
+      </c>
+      <c r="C262" t="s">
+        <v>143</v>
+      </c>
+      <c r="D262" t="s">
+        <v>63</v>
+      </c>
+      <c r="E262" s="1">
+        <v>124484846000</v>
+      </c>
+      <c r="F262" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="H262" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>141</v>
+      </c>
+      <c r="B263" t="s">
+        <v>142</v>
+      </c>
+      <c r="C263" t="s">
+        <v>143</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="1">
+        <v>149993362000</v>
+      </c>
+      <c r="F263" s="1">
+        <v>15.36</v>
+      </c>
+      <c r="H263" s="1">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>141</v>
+      </c>
+      <c r="B264" t="s">
+        <v>142</v>
+      </c>
+      <c r="C264" t="s">
+        <v>143</v>
+      </c>
+      <c r="D264" t="s">
+        <v>65</v>
+      </c>
+      <c r="E264" s="1">
+        <v>190660716000</v>
+      </c>
+      <c r="F264" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="G264" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="H264" s="1">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>141</v>
+      </c>
+      <c r="B265" t="s">
+        <v>142</v>
+      </c>
+      <c r="C265" t="s">
+        <v>143</v>
+      </c>
+      <c r="D265" t="s">
+        <v>66</v>
+      </c>
+      <c r="E265" s="1">
+        <v>271379933000</v>
+      </c>
+      <c r="F265" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="G265" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="H265" s="1">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>141</v>
+      </c>
+      <c r="B266" t="s">
+        <v>142</v>
+      </c>
+      <c r="C266" t="s">
+        <v>143</v>
+      </c>
+      <c r="D266" t="s">
+        <v>67</v>
+      </c>
+      <c r="E266" s="1">
+        <v>337552562000</v>
+      </c>
+      <c r="F266" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="G266" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="H266" s="1">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>141</v>
+      </c>
+      <c r="B267" t="s">
+        <v>142</v>
+      </c>
+      <c r="C267" t="s">
+        <v>143</v>
+      </c>
+      <c r="D267" t="s">
+        <v>68</v>
+      </c>
+      <c r="E267" s="1">
+        <v>442562618000</v>
+      </c>
+      <c r="F267" s="1">
+        <v>13.29</v>
+      </c>
+      <c r="G267" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H267" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>141</v>
+      </c>
+      <c r="B268" t="s">
+        <v>142</v>
+      </c>
+      <c r="C268" t="s">
+        <v>143</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="1">
+        <v>528644875000</v>
+      </c>
+      <c r="F268" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="G268" s="1">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H268" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>141</v>
+      </c>
+      <c r="B269" t="s">
+        <v>142</v>
+      </c>
+      <c r="C269" t="s">
+        <v>143</v>
+      </c>
+      <c r="D269" t="s">
+        <v>70</v>
+      </c>
+      <c r="E269" s="1">
+        <v>603762790000</v>
+      </c>
+      <c r="F269" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="G269" s="1">
+        <v>9.41</v>
+      </c>
+      <c r="H269" s="1">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>141</v>
+      </c>
+      <c r="B270" t="s">
+        <v>142</v>
+      </c>
+      <c r="C270" t="s">
+        <v>143</v>
+      </c>
+      <c r="D270" t="s">
+        <v>71</v>
+      </c>
+      <c r="E270" s="1">
+        <v>718273938000</v>
+      </c>
+      <c r="F270" s="1">
+        <v>14.86</v>
+      </c>
+      <c r="G270" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="H270" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>141</v>
+      </c>
+      <c r="B271" t="s">
+        <v>142</v>
+      </c>
+      <c r="C271" t="s">
+        <v>143</v>
+      </c>
+      <c r="D271" t="s">
+        <v>72</v>
+      </c>
+      <c r="E271" s="1">
+        <v>885201520000</v>
+      </c>
+      <c r="F271" s="1">
+        <v>15.57</v>
+      </c>
+      <c r="G271" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="H271" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>141</v>
+      </c>
+      <c r="B272" t="s">
+        <v>142</v>
+      </c>
+      <c r="C272" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272" t="s">
+        <v>73</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1084870000000</v>
+      </c>
+      <c r="F272" s="1">
+        <v>14.84</v>
+      </c>
+      <c r="G272" s="1">
+        <v>10.88</v>
+      </c>
+      <c r="H272" s="1">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>144</v>
+      </c>
+      <c r="B273" t="s">
+        <v>145</v>
+      </c>
+      <c r="C273" t="s">
+        <v>146</v>
+      </c>
+      <c r="D273" t="s">
+        <v>72</v>
+      </c>
+      <c r="E273" s="1">
+        <v>4969658000000</v>
+      </c>
+      <c r="F273" s="1">
+        <v>13.52</v>
+      </c>
+      <c r="G273" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="H273" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" t="s">
+        <v>145</v>
+      </c>
+      <c r="C274" t="s">
+        <v>146</v>
+      </c>
+      <c r="D274" t="s">
+        <v>73</v>
+      </c>
+      <c r="E274" s="1">
+        <v>5651439000000</v>
+      </c>
+      <c r="F274" s="1">
+        <v>13.88</v>
+      </c>
+      <c r="G274" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="H274" s="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>147</v>
+      </c>
+      <c r="B275" t="s">
+        <v>148</v>
+      </c>
+      <c r="C275" t="s">
+        <v>149</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="1">
+        <v>58352851000</v>
+      </c>
+      <c r="F275" s="1">
+        <v>13.42</v>
+      </c>
+      <c r="G275" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="H275" s="1">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>147</v>
+      </c>
+      <c r="B276" t="s">
+        <v>148</v>
+      </c>
+      <c r="C276" t="s">
+        <v>149</v>
+      </c>
+      <c r="D276" t="s">
+        <v>70</v>
+      </c>
+      <c r="E276" s="1">
+        <v>67865185200</v>
+      </c>
+      <c r="F276" s="1">
+        <v>12.93</v>
+      </c>
+      <c r="G276" s="1">
+        <v>11.821</v>
+      </c>
+      <c r="H276" s="1">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>147</v>
+      </c>
+      <c r="B277" t="s">
+        <v>148</v>
+      </c>
+      <c r="C277" t="s">
+        <v>149</v>
+      </c>
+      <c r="D277" t="s">
+        <v>71</v>
+      </c>
+      <c r="E277" s="1">
+        <v>80401478700</v>
+      </c>
+      <c r="F277" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="G277" s="1">
+        <v>11.94</v>
+      </c>
+      <c r="H277" s="1">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>147</v>
+      </c>
+      <c r="B278" t="s">
+        <v>148</v>
+      </c>
+      <c r="C278" t="s">
+        <v>149</v>
+      </c>
+      <c r="D278" t="s">
+        <v>72</v>
+      </c>
+      <c r="E278" s="1">
+        <v>90051784200</v>
+      </c>
+      <c r="F278" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="G278" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="H278" s="1">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>147</v>
+      </c>
+      <c r="B279" t="s">
+        <v>148</v>
+      </c>
+      <c r="C279" t="s">
+        <v>149</v>
+      </c>
+      <c r="D279" t="s">
+        <v>73</v>
+      </c>
+      <c r="E279" s="1">
+        <v>101695677600</v>
+      </c>
+      <c r="F279" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="G279" s="1">
+        <v>10.35</v>
+      </c>
+      <c r="H279" s="1">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>150</v>
+      </c>
+      <c r="B280" t="s">
+        <v>151</v>
+      </c>
+      <c r="C280" t="s">
+        <v>152</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="1">
+        <v>85216178000</v>
+      </c>
+      <c r="F280" s="1">
+        <v>12.65</v>
+      </c>
+      <c r="G280" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="H280" s="1">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>150</v>
+      </c>
+      <c r="B281" t="s">
+        <v>151</v>
+      </c>
+      <c r="C281" t="s">
+        <v>152</v>
+      </c>
+      <c r="D281" t="s">
+        <v>70</v>
+      </c>
+      <c r="E281" s="1">
+        <v>92916997000</v>
+      </c>
+      <c r="F281" s="1">
+        <v>14.12</v>
+      </c>
+      <c r="G281" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="H281" s="1">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>150</v>
+      </c>
+      <c r="B282" t="s">
+        <v>151</v>
+      </c>
+      <c r="C282" t="s">
+        <v>152</v>
+      </c>
+      <c r="D282" t="s">
+        <v>71</v>
+      </c>
+      <c r="E282" s="1">
+        <v>103719082000</v>
+      </c>
+      <c r="F282" s="1">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="G282" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="H282" s="1">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>150</v>
+      </c>
+      <c r="B283" t="s">
+        <v>151</v>
+      </c>
+      <c r="C283" t="s">
+        <v>152</v>
+      </c>
+      <c r="D283" t="s">
+        <v>72</v>
+      </c>
+      <c r="E283" s="1">
+        <v>113931625000</v>
+      </c>
+      <c r="F283" s="1">
+        <v>15.85</v>
+      </c>
+      <c r="G283" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H283" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>150</v>
+      </c>
+      <c r="B284" t="s">
+        <v>151</v>
+      </c>
+      <c r="C284" t="s">
+        <v>152</v>
+      </c>
+      <c r="D284" t="s">
+        <v>73</v>
+      </c>
+      <c r="E284" s="1">
+        <v>127848159000</v>
+      </c>
+      <c r="F284" s="1">
+        <v>15.21</v>
+      </c>
+      <c r="G284" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H284" s="1">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>153</v>
+      </c>
+      <c r="B285" t="s">
+        <v>154</v>
+      </c>
+      <c r="C285" t="s">
+        <v>155</v>
+      </c>
+      <c r="D285" t="s">
+        <v>68</v>
+      </c>
+      <c r="E285" s="1">
+        <v>335994276000</v>
+      </c>
+      <c r="F285" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="G285" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H285" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>153</v>
+      </c>
+      <c r="B286" t="s">
+        <v>154</v>
+      </c>
+      <c r="C286" t="s">
+        <v>155</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="1">
+        <v>386585096000</v>
+      </c>
+      <c r="F286" s="1">
+        <v>11.88</v>
+      </c>
+      <c r="G286" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H286" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>153</v>
+      </c>
+      <c r="B287" t="s">
+        <v>154</v>
+      </c>
+      <c r="C287" t="s">
+        <v>155</v>
+      </c>
+      <c r="D287" t="s">
+        <v>70</v>
+      </c>
+      <c r="E287" s="1">
+        <v>480468318000</v>
+      </c>
+      <c r="F287" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="G287" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="H287" s="1">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>153</v>
+      </c>
+      <c r="B288" t="s">
+        <v>154</v>
+      </c>
+      <c r="C288" t="s">
+        <v>155</v>
+      </c>
+      <c r="D288" t="s">
+        <v>71</v>
+      </c>
+      <c r="E288" s="1">
+        <v>575666964000</v>
+      </c>
+      <c r="F288" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="G288" s="1">
+        <v>9.91</v>
+      </c>
+      <c r="H288" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>153</v>
+      </c>
+      <c r="B289" t="s">
+        <v>154</v>
+      </c>
+      <c r="C289" t="s">
+        <v>155</v>
+      </c>
+      <c r="D289" t="s">
+        <v>72</v>
+      </c>
+      <c r="E289" s="1">
+        <v>648729308000</v>
+      </c>
+      <c r="F289" s="1">
+        <v>13.54</v>
+      </c>
+      <c r="G289" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H289" s="1">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>153</v>
+      </c>
+      <c r="B290" t="s">
+        <v>154</v>
+      </c>
+      <c r="C290" t="s">
+        <v>155</v>
+      </c>
+      <c r="D290" t="s">
+        <v>73</v>
+      </c>
+      <c r="E290" s="1">
+        <v>738405103000</v>
+      </c>
+      <c r="F290" s="1">
+        <v>14.41</v>
+      </c>
+      <c r="G290" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="H290" s="1">
+        <v>8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>156</v>
+      </c>
+      <c r="B291" t="s">
+        <v>157</v>
+      </c>
+      <c r="C291" t="s">
+        <v>158</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="1">
+        <v>189072065000</v>
+      </c>
+      <c r="F291" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="G291" s="1">
+        <v>11.51</v>
+      </c>
+      <c r="H291" s="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>156</v>
+      </c>
+      <c r="B292" t="s">
+        <v>157</v>
+      </c>
+      <c r="C292" t="s">
+        <v>158</v>
+      </c>
+      <c r="D292" t="s">
+        <v>70</v>
+      </c>
+      <c r="E292" s="1">
+        <v>264937566000</v>
+      </c>
+      <c r="F292" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="G292" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H292" s="1">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>156</v>
+      </c>
+      <c r="B293" t="s">
+        <v>157</v>
+      </c>
+      <c r="C293" t="s">
+        <v>158</v>
+      </c>
+      <c r="D293" t="s">
+        <v>71</v>
+      </c>
+      <c r="E293" s="1">
+        <v>316930230000</v>
+      </c>
+      <c r="F293" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G293" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="H293" s="1">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>156</v>
+      </c>
+      <c r="B294" t="s">
+        <v>157</v>
+      </c>
+      <c r="C294" t="s">
+        <v>158</v>
+      </c>
+      <c r="D294" t="s">
+        <v>72</v>
+      </c>
+      <c r="E294" s="1">
+        <v>370114092000</v>
+      </c>
+      <c r="F294" s="1">
+        <v>13.61</v>
+      </c>
+      <c r="G294" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="H294" s="1">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>156</v>
+      </c>
+      <c r="B295" t="s">
+        <v>157</v>
+      </c>
+      <c r="C295" t="s">
+        <v>158</v>
+      </c>
+      <c r="D295" t="s">
+        <v>73</v>
+      </c>
+      <c r="E295" s="1">
+        <v>416277721000</v>
+      </c>
+      <c r="F295" s="1">
+        <v>12.88</v>
+      </c>
+      <c r="G295" s="1">
+        <v>10.53</v>
+      </c>
+      <c r="H295" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>159</v>
+      </c>
+      <c r="B296" t="s">
+        <v>160</v>
+      </c>
+      <c r="C296" t="s">
+        <v>161</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="1">
+        <v>59159522000</v>
+      </c>
+      <c r="F296" s="1">
+        <v>14.18</v>
+      </c>
+      <c r="G296" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="H296" s="1">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>159</v>
+      </c>
+      <c r="B297" t="s">
+        <v>160</v>
+      </c>
+      <c r="C297" t="s">
+        <v>161</v>
+      </c>
+      <c r="D297" t="s">
+        <v>70</v>
+      </c>
+      <c r="E297" s="1">
+        <v>65690911000</v>
+      </c>
+      <c r="F297" s="1">
+        <v>13.42</v>
+      </c>
+      <c r="G297" s="1">
+        <v>12.27</v>
+      </c>
+      <c r="H297" s="1">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>159</v>
+      </c>
+      <c r="B298" t="s">
+        <v>162</v>
+      </c>
+      <c r="C298" t="s">
+        <v>161</v>
+      </c>
+      <c r="D298" t="s">
+        <v>71</v>
+      </c>
+      <c r="E298" s="1">
+        <v>80956209000</v>
+      </c>
+      <c r="F298" s="1">
+        <v>14.89</v>
+      </c>
+      <c r="G298" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="H298" s="1">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>159</v>
+      </c>
+      <c r="B299" t="s">
+        <v>162</v>
+      </c>
+      <c r="C299" t="s">
+        <v>161</v>
+      </c>
+      <c r="D299" t="s">
+        <v>72</v>
+      </c>
+      <c r="E299" s="1">
+        <v>89467048000</v>
+      </c>
+      <c r="F299" s="1">
+        <v>14.67</v>
+      </c>
+      <c r="G299" s="1">
+        <v>12.17</v>
+      </c>
+      <c r="H299" s="1">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>159</v>
+      </c>
+      <c r="B300" t="s">
+        <v>162</v>
+      </c>
+      <c r="C300" t="s">
+        <v>161</v>
+      </c>
+      <c r="D300" t="s">
+        <v>73</v>
+      </c>
+      <c r="E300" s="1">
+        <v>98453830000</v>
+      </c>
+      <c r="F300" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="G300" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="H300" s="1">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>163</v>
+      </c>
+      <c r="B301" t="s">
+        <v>164</v>
+      </c>
+      <c r="C301" t="s">
+        <v>165</v>
+      </c>
+      <c r="D301" t="s">
+        <v>71</v>
+      </c>
+      <c r="E301" s="1">
+        <v>194974970000</v>
+      </c>
+      <c r="F301" s="1">
+        <v>12.55</v>
+      </c>
+      <c r="G301" s="1">
+        <v>10.61</v>
+      </c>
+      <c r="H301" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>163</v>
+      </c>
+      <c r="B302" t="s">
+        <v>164</v>
+      </c>
+      <c r="C302" t="s">
+        <v>165</v>
+      </c>
+      <c r="D302" t="s">
+        <v>72</v>
+      </c>
+      <c r="E302" s="1">
+        <v>234559480000</v>
+      </c>
+      <c r="F302" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="G302" s="1">
+        <v>10.49</v>
+      </c>
+      <c r="H302" s="1">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>163</v>
+      </c>
+      <c r="B303" t="s">
+        <v>164</v>
+      </c>
+      <c r="C303" t="s">
+        <v>165</v>
+      </c>
+      <c r="D303" t="s">
+        <v>73</v>
+      </c>
+      <c r="E303" s="1">
+        <v>277949525000</v>
+      </c>
+      <c r="F303" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="G303" s="1">
+        <v>10.46</v>
+      </c>
+      <c r="H303" s="1">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>166</v>
+      </c>
+      <c r="B304" t="s">
+        <v>167</v>
+      </c>
+      <c r="C304" t="s">
+        <v>168</v>
+      </c>
+      <c r="D304" t="s">
+        <v>73</v>
+      </c>
+      <c r="E304" s="1">
+        <v>162822146000</v>
+      </c>
+      <c r="F304" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="G304" s="1">
+        <v>11.97</v>
+      </c>
+      <c r="H304" s="1">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>169</v>
+      </c>
+      <c r="B305" t="s">
+        <v>170</v>
+      </c>
+      <c r="C305" t="s">
+        <v>171</v>
+      </c>
+      <c r="D305" t="s">
+        <v>70</v>
+      </c>
+      <c r="E305" s="1">
+        <v>307475000000</v>
+      </c>
+      <c r="F305" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="G305" s="1">
+        <v>10.49</v>
+      </c>
+      <c r="H305" s="1">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>169</v>
+      </c>
+      <c r="B306" t="s">
+        <v>170</v>
+      </c>
+      <c r="C306" t="s">
+        <v>171</v>
+      </c>
+      <c r="D306" t="s">
+        <v>71</v>
+      </c>
+      <c r="E306" s="1">
+        <v>349504822000</v>
+      </c>
+      <c r="F306" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="G306" s="1">
+        <v>10.48</v>
+      </c>
+      <c r="H306" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>169</v>
+      </c>
+      <c r="B307" t="s">
+        <v>170</v>
+      </c>
+      <c r="C307" t="s">
+        <v>171</v>
+      </c>
+      <c r="D307" t="s">
+        <v>72</v>
+      </c>
+      <c r="E307" s="1">
+        <v>381759225000</v>
+      </c>
+      <c r="F307" s="1">
+        <v>12.11</v>
+      </c>
+      <c r="G307" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="H307" s="1">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>169</v>
+      </c>
+      <c r="B308" t="s">
+        <v>170</v>
+      </c>
+      <c r="C308" t="s">
+        <v>171</v>
+      </c>
+      <c r="D308" t="s">
+        <v>73</v>
+      </c>
+      <c r="E308" s="1">
+        <v>409505750000</v>
+      </c>
+      <c r="F308" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="G308" s="1">
+        <v>10.87</v>
+      </c>
+      <c r="H308" s="1">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>172</v>
+      </c>
+      <c r="B309" t="s">
+        <v>173</v>
+      </c>
+      <c r="C309" t="s">
+        <v>174</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="1">
+        <v>927193262000</v>
+      </c>
+      <c r="F309" s="1">
+        <v>11.51</v>
+      </c>
+      <c r="G309" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="H309" s="1">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>172</v>
+      </c>
+      <c r="B310" t="s">
+        <v>173</v>
+      </c>
+      <c r="C310" t="s">
+        <v>174</v>
+      </c>
+      <c r="D310" t="s">
+        <v>70</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1078766573000</v>
+      </c>
+      <c r="F310" s="1">
+        <v>12.62</v>
+      </c>
+      <c r="G310" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="H310" s="1">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>172</v>
+      </c>
+      <c r="B311" t="s">
+        <v>173</v>
+      </c>
+      <c r="C311" t="s">
+        <v>174</v>
+      </c>
+      <c r="D311" t="s">
+        <v>71</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1206116984000</v>
+      </c>
+      <c r="F311" s="1">
+        <v>12.55</v>
+      </c>
+      <c r="G311" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="H311" s="1">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>172</v>
+      </c>
+      <c r="B312" t="s">
+        <v>173</v>
+      </c>
+      <c r="C312" t="s">
+        <v>174</v>
+      </c>
+      <c r="D312" t="s">
+        <v>72</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1336504047000</v>
+      </c>
+      <c r="F312" s="1">
+        <v>12.89</v>
+      </c>
+      <c r="G312" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="H312" s="1">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>172</v>
+      </c>
+      <c r="B313" t="s">
+        <v>173</v>
+      </c>
+      <c r="C313" t="s">
+        <v>174</v>
+      </c>
+      <c r="D313" t="s">
+        <v>73</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1513599663000</v>
+      </c>
+      <c r="F313" s="1">
+        <v>14.47</v>
+      </c>
+      <c r="G313" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="H313" s="1">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>175</v>
+      </c>
+      <c r="B314" t="s">
+        <v>176</v>
+      </c>
+      <c r="C314" t="s">
+        <v>177</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="1">
+        <v>68573404400</v>
+      </c>
+      <c r="F314" s="1">
+        <v>14.18</v>
+      </c>
+      <c r="G314" s="1">
+        <v>13.08</v>
+      </c>
+      <c r="H314" s="1">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>175</v>
+      </c>
+      <c r="B315" t="s">
+        <v>176</v>
+      </c>
+      <c r="C315" t="s">
+        <v>177</v>
+      </c>
+      <c r="D315" t="s">
+        <v>70</v>
+      </c>
+      <c r="E315" s="1">
+        <v>71003039500</v>
+      </c>
+      <c r="F315" s="1">
+        <v>14.14</v>
+      </c>
+      <c r="G315" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="H315" s="1">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>175</v>
+      </c>
+      <c r="B316" t="s">
+        <v>176</v>
+      </c>
+      <c r="C316" t="s">
+        <v>177</v>
+      </c>
+      <c r="D316" t="s">
+        <v>71</v>
+      </c>
+      <c r="E316" s="1">
+        <v>75150852700</v>
+      </c>
+      <c r="F316" s="1">
+        <v>15.21</v>
+      </c>
+      <c r="G316" s="1">
+        <v>14.04</v>
+      </c>
+      <c r="H316" s="1">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>175</v>
+      </c>
+      <c r="B317" t="s">
+        <v>176</v>
+      </c>
+      <c r="C317" t="s">
+        <v>177</v>
+      </c>
+      <c r="D317" t="s">
+        <v>72</v>
+      </c>
+      <c r="E317" s="1">
+        <v>82848749200</v>
+      </c>
+      <c r="F317" s="1">
+        <v>15.29</v>
+      </c>
+      <c r="G317" s="1">
+        <v>14.17</v>
+      </c>
+      <c r="H317" s="1">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>175</v>
+      </c>
+      <c r="B318" t="s">
+        <v>176</v>
+      </c>
+      <c r="C318" t="s">
+        <v>177</v>
+      </c>
+      <c r="D318" t="s">
+        <v>73</v>
+      </c>
+      <c r="E318" s="1">
+        <v>90817239500</v>
+      </c>
+      <c r="F318" s="1">
+        <v>14.48</v>
+      </c>
+      <c r="G318" s="1">
+        <v>13.36</v>
+      </c>
+      <c r="H318" s="1">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>178</v>
+      </c>
+      <c r="B319" t="s">
+        <v>179</v>
+      </c>
+      <c r="C319" t="s">
+        <v>180</v>
+      </c>
+      <c r="D319" t="s">
+        <v>70</v>
+      </c>
+      <c r="E319" s="1">
+        <v>207541000000</v>
+      </c>
+      <c r="F319" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="G319" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="H319" s="1">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>178</v>
+      </c>
+      <c r="B320" t="s">
+        <v>179</v>
+      </c>
+      <c r="C320" t="s">
+        <v>180</v>
+      </c>
+      <c r="D320" t="s">
+        <v>71</v>
+      </c>
+      <c r="E320" s="1">
+        <v>238702686000</v>
+      </c>
+      <c r="F320" s="1">
+        <v>12.96</v>
+      </c>
+      <c r="G320" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="H320" s="1">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>178</v>
+      </c>
+      <c r="B321" t="s">
+        <v>179</v>
+      </c>
+      <c r="C321" t="s">
+        <v>180</v>
+      </c>
+      <c r="D321" t="s">
+        <v>72</v>
+      </c>
+      <c r="E321" s="1">
+        <v>251043990000</v>
+      </c>
+      <c r="F321" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="G321" s="1">
+        <v>11.34</v>
+      </c>
+      <c r="H321" s="1">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>178</v>
+      </c>
+      <c r="B322" t="s">
+        <v>179</v>
+      </c>
+      <c r="C322" t="s">
+        <v>180</v>
+      </c>
+      <c r="D322" t="s">
+        <v>73</v>
+      </c>
+      <c r="E322" s="1">
+        <v>268540970000</v>
+      </c>
+      <c r="F322" s="1">
+        <v>14.21</v>
+      </c>
+      <c r="G322" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="H322" s="1">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>181</v>
+      </c>
+      <c r="B323" t="s">
+        <v>182</v>
+      </c>
+      <c r="C323" t="s">
+        <v>183</v>
+      </c>
+      <c r="D323" t="s">
+        <v>69</v>
+      </c>
+      <c r="E323" s="1">
+        <v>91889409000</v>
+      </c>
+      <c r="F323" s="1">
+        <v>13.22</v>
+      </c>
+      <c r="G323" s="1">
+        <v>10.93</v>
+      </c>
+      <c r="H323" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>181</v>
+      </c>
+      <c r="B324" t="s">
+        <v>182</v>
+      </c>
+      <c r="C324" t="s">
+        <v>183</v>
+      </c>
+      <c r="D324" t="s">
+        <v>70</v>
+      </c>
+      <c r="E324" s="1">
+        <v>108554373000</v>
+      </c>
+      <c r="F324" s="1">
+        <v>12.97</v>
+      </c>
+      <c r="G324" s="1">
+        <v>9.92</v>
+      </c>
+      <c r="H324" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>181</v>
+      </c>
+      <c r="B325" t="s">
+        <v>182</v>
+      </c>
+      <c r="C325" t="s">
+        <v>183</v>
+      </c>
+      <c r="D325" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325" s="1">
+        <v>125742905000</v>
+      </c>
+      <c r="F325" s="1">
+        <v>15.12</v>
+      </c>
+      <c r="G325" s="1">
+        <v>10.53</v>
+      </c>
+      <c r="H325" s="1">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>181</v>
+      </c>
+      <c r="B326" t="s">
+        <v>182</v>
+      </c>
+      <c r="C326" t="s">
+        <v>183</v>
+      </c>
+      <c r="D326" t="s">
+        <v>72</v>
+      </c>
+      <c r="E326" s="1">
+        <v>138687727000</v>
+      </c>
+      <c r="F326" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="G326" s="1">
+        <v>12.49</v>
+      </c>
+      <c r="H326" s="1">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>181</v>
+      </c>
+      <c r="B327" t="s">
+        <v>182</v>
+      </c>
+      <c r="C327" t="s">
+        <v>183</v>
+      </c>
+      <c r="D327" t="s">
+        <v>73</v>
+      </c>
+      <c r="E327" s="1">
+        <v>163839589000</v>
+      </c>
+      <c r="F327" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="G327" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="H327" s="1">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>184</v>
+      </c>
+      <c r="B328" t="s">
+        <v>185</v>
+      </c>
+      <c r="C328" t="s">
+        <v>186</v>
+      </c>
+      <c r="D328" t="s">
+        <v>70</v>
+      </c>
+      <c r="E328" s="1">
+        <v>102292447500</v>
+      </c>
+      <c r="F328" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="G328" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="H328" s="1">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>184</v>
+      </c>
+      <c r="B329" t="s">
+        <v>185</v>
+      </c>
+      <c r="C329" t="s">
+        <v>186</v>
+      </c>
+      <c r="D329" t="s">
+        <v>71</v>
+      </c>
+      <c r="E329" s="1">
+        <v>126266762600</v>
+      </c>
+      <c r="F329" s="1">
+        <v>13.35</v>
+      </c>
+      <c r="G329" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H329" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>184</v>
+      </c>
+      <c r="B330" t="s">
+        <v>185</v>
+      </c>
+      <c r="C330" t="s">
+        <v>186</v>
+      </c>
+      <c r="D330" t="s">
+        <v>72</v>
+      </c>
+      <c r="E330" s="1">
+        <v>123755590000</v>
+      </c>
+      <c r="F330" s="1">
+        <v>14.78</v>
+      </c>
+      <c r="G330" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="H330" s="1">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>184</v>
+      </c>
+      <c r="B331" t="s">
+        <v>185</v>
+      </c>
+      <c r="C331" t="s">
+        <v>186</v>
+      </c>
+      <c r="D331" t="s">
+        <v>73</v>
+      </c>
+      <c r="E331" s="1">
+        <v>129432556000</v>
+      </c>
+      <c r="F331" s="1">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="G331" s="1">
+        <v>11.19</v>
+      </c>
+      <c r="H331" s="1">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>187</v>
+      </c>
+      <c r="B332" t="s">
+        <v>188</v>
+      </c>
+      <c r="C332" t="s">
+        <v>189</v>
+      </c>
+      <c r="D332" t="s">
+        <v>71</v>
+      </c>
+      <c r="E332" s="1">
+        <v>229776495000</v>
+      </c>
+      <c r="F332" s="1">
+        <v>15.68</v>
+      </c>
+      <c r="G332" s="1">
+        <v>11.82</v>
+      </c>
+      <c r="H332" s="1">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>187</v>
+      </c>
+      <c r="B333" t="s">
+        <v>188</v>
+      </c>
+      <c r="C333" t="s">
+        <v>189</v>
+      </c>
+      <c r="D333" t="s">
+        <v>72</v>
+      </c>
+      <c r="E333" s="1">
+        <v>265908365000</v>
+      </c>
+      <c r="F333" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="G333" s="1">
+        <v>11.33</v>
+      </c>
+      <c r="H333" s="1">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>187</v>
+      </c>
+      <c r="B334" t="s">
+        <v>188</v>
+      </c>
+      <c r="C334" t="s">
+        <v>189</v>
+      </c>
+      <c r="D334" t="s">
+        <v>73</v>
+      </c>
+      <c r="E334" s="1">
+        <v>267941143000</v>
+      </c>
+      <c r="F334" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="G334" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="H334" s="1">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>190</v>
+      </c>
+      <c r="B335" t="s">
+        <v>191</v>
+      </c>
+      <c r="C335" t="s">
+        <v>192</v>
+      </c>
+      <c r="D335" t="s">
+        <v>71</v>
+      </c>
+      <c r="E335" s="1">
+        <v>326361334000</v>
+      </c>
+      <c r="F335" s="1">
+        <v>12.24</v>
+      </c>
+      <c r="G335" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H335" s="1">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>190</v>
+      </c>
+      <c r="B336" t="s">
+        <v>191</v>
+      </c>
+      <c r="C336" t="s">
+        <v>192</v>
+      </c>
+      <c r="D336" t="s">
+        <v>72</v>
+      </c>
+      <c r="E336" s="1">
+        <v>379212888000</v>
+      </c>
+      <c r="F336" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="G336" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="H336" s="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>190</v>
+      </c>
+      <c r="B337" t="s">
+        <v>191</v>
+      </c>
+      <c r="C337" t="s">
+        <v>192</v>
+      </c>
+      <c r="D337" t="s">
+        <v>73</v>
+      </c>
+      <c r="E337" s="1">
+        <v>449096167000</v>
+      </c>
+      <c r="F337" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="G337" s="1">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H337" s="1">
+        <v>8.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>